--- a/ds/3des/SAEP/tabulacao-acertos-erros.xlsx
+++ b/ds/3des/SAEP/tabulacao-acertos-erros.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\SAEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F1C43-BEE6-40BA-B452-7BC10B3A38C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED41997-8FDF-4AD9-BB2E-8C53926E8539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="alunos" sheetId="1" r:id="rId1"/>
+    <sheet name="objetiva" sheetId="1" r:id="rId1"/>
+    <sheet name="pratica" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,8 +54,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0BA3170A-CCCA-45E8-93BC-2671BC0DD997}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0BA3170A-CCCA-45E8-93BC-2671BC0DD997}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Nota (de 0 a 100) onde 100 é o maior número de acertos (27)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Nomes</t>
   </si>
@@ -174,14 +193,24 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -213,12 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -226,6 +249,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +279,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -261,9 +290,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -271,42 +306,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -659,15 +659,23 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2024-11-21T14:04:57.84" personId="{A6E38886-AD15-41AC-9300-BA3B2E2E3197}" id="{0BA3170A-CCCA-45E8-93BC-2671BC0DD997}">
+    <text>Nota (de 0 a 100) onde 100 é o maior número de acertos (27)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:E33"/>
+      <selection pane="bottomRight" sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +807,7 @@
         <v>0.65</v>
       </c>
       <c r="F6">
-        <f>ROUND(B6*100/$B$33,1)</f>
+        <f t="shared" ref="F6:F14" si="3">ROUND(B6*100/$B$33,1)</f>
         <v>51.9</v>
       </c>
     </row>
@@ -823,7 +831,7 @@
         <v>0.7</v>
       </c>
       <c r="F7">
-        <f>ROUND(B7*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>44.4</v>
       </c>
     </row>
@@ -847,7 +855,7 @@
         <v>0.35</v>
       </c>
       <c r="F8">
-        <f>ROUND(B8*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>96.3</v>
       </c>
     </row>
@@ -871,7 +879,7 @@
         <v>0.4</v>
       </c>
       <c r="F9">
-        <f>ROUND(B9*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>88.9</v>
       </c>
     </row>
@@ -895,7 +903,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="F10">
-        <f>ROUND(B10*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>48.1</v>
       </c>
     </row>
@@ -919,7 +927,7 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="F11">
-        <f>ROUND(B11*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -943,7 +951,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F12">
-        <f>ROUND(B12*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>66.7</v>
       </c>
     </row>
@@ -967,7 +975,7 @@
         <v>0.4</v>
       </c>
       <c r="F13">
-        <f>ROUND(B13*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>88.9</v>
       </c>
     </row>
@@ -991,7 +999,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="F14">
-        <f>ROUND(B14*100/$B$33,1)</f>
+        <f t="shared" si="3"/>
         <v>85.2</v>
       </c>
     </row>
@@ -1022,7 +1030,7 @@
         <v>0.6</v>
       </c>
       <c r="F16">
-        <f>ROUND(B16*100/$B$33,1)</f>
+        <f t="shared" ref="F16:F22" si="4">ROUND(B16*100/$B$33,1)</f>
         <v>59.3</v>
       </c>
     </row>
@@ -1046,7 +1054,7 @@
         <v>0.625</v>
       </c>
       <c r="F17">
-        <f>ROUND(B17*100/$B$33,1)</f>
+        <f t="shared" si="4"/>
         <v>55.6</v>
       </c>
     </row>
@@ -1070,7 +1078,7 @@
         <v>0.5</v>
       </c>
       <c r="F18">
-        <f>ROUND(B18*100/$B$33,1)</f>
+        <f t="shared" si="4"/>
         <v>74.099999999999994</v>
       </c>
     </row>
@@ -1094,7 +1102,7 @@
         <v>0.65</v>
       </c>
       <c r="F19">
-        <f>ROUND(B19*100/$B$33,1)</f>
+        <f t="shared" si="4"/>
         <v>51.9</v>
       </c>
     </row>
@@ -1118,7 +1126,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="F20">
-        <f>ROUND(B20*100/$B$33,1)</f>
+        <f t="shared" si="4"/>
         <v>70.400000000000006</v>
       </c>
     </row>
@@ -1142,7 +1150,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="F21">
-        <f>ROUND(B21*100/$B$33,1)</f>
+        <f t="shared" si="4"/>
         <v>33.299999999999997</v>
       </c>
     </row>
@@ -1166,7 +1174,7 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="F22">
-        <f>ROUND(B22*100/$B$33,1)</f>
+        <f t="shared" si="4"/>
         <v>77.8</v>
       </c>
     </row>
@@ -1347,11 +1355,396 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A33:B33 A34:XFD1048576 D33:XFD33 A1:XFD1 A28:XFD32 A2:E27 G2:XFD27">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 A2:E27 G2:XFD27 A28:XFD32 A33:B33 D33:XFD33 A34:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3513724-D9BD-4DAA-B7FA-A4450E0D928F}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <f>ROUND(B2/36*100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D27" si="0">ROUND(B3/36*100,0)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1 A28:XFD1048576 A2:C27 E2:XFD27">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ds/3des/SAEP/tabulacao-acertos-erros.xlsx
+++ b/ds/3des/SAEP/tabulacao-acertos-erros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\SAEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED41997-8FDF-4AD9-BB2E-8C53926E8539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEEA120-55B6-4567-857E-D3F972717155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,12 +249,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,10 +288,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +669,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A34"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +742,7 @@
         <v>0.35</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E28" si="2">C3/40</f>
+        <f t="shared" ref="E3:F28" si="2">C3/40</f>
         <v>0.65</v>
       </c>
       <c r="F3">
@@ -1283,6 +1277,10 @@
       <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>0.53863636363636369</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1534090909090907E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,7 +1375,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,45 +1518,75 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
       <c r="D12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
       <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1580,9 +1608,15 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1652,9 +1686,15 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D21:D22" si="1">ROUND(B21/36*100,0)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,14 +1702,14 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1685,9 +1725,15 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
       <c r="D24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1718,9 +1764,15 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,7 +1792,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A28:XFD1048576 A2:C27 E2:XFD27">
+  <conditionalFormatting sqref="A1:XFD1 A2:C27 E2:XFD27 A28:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/3des/SAEP/tabulacao-acertos-erros.xlsx
+++ b/ds/3des/SAEP/tabulacao-acertos-erros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2024\ds\3des\SAEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEEA120-55B6-4567-857E-D3F972717155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53335D96-F400-4DEB-8876-95C8D84A37C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
